--- a/data/trans_bre/P36B02_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P36B02_R-Clase-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.3470591917415281</v>
+        <v>-0.103310991254501</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.559697438650647</v>
+        <v>-1.34869381098949</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.957715392649596</v>
+        <v>-3.360214837918567</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-6.589444254786554</v>
+        <v>-6.451372190422434</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.003942105176654866</v>
+        <v>-0.001069850392811383</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.01683878223118403</v>
+        <v>-0.01421269256077893</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.0308618292821577</v>
+        <v>-0.03564916113110918</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.07311889919557751</v>
+        <v>-0.07202612056115952</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.873294087827159</v>
+        <v>5.744773864328253</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.15049341362004</v>
+        <v>6.103248084592929</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.10922096979811</v>
+        <v>3.899148454854748</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.420895963882154</v>
+        <v>1.369946605459064</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.06321408333844199</v>
+        <v>0.06210909865112971</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06752510686899031</v>
+        <v>0.06749386661009904</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0448721168662823</v>
+        <v>0.0425868814204018</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.01650392700998483</v>
+        <v>0.01568363509201839</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>2.159931450246466</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-3.950443656383373</v>
+        <v>-3.950443656383362</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.008027403221208146</v>
@@ -749,7 +749,7 @@
         <v>0.0234849748248787</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.04406212271808485</v>
+        <v>-0.04406212271808473</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-3.2878403222983</v>
+        <v>-3.171794935081972</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.645115068253309</v>
+        <v>-2.796552641300963</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.668598889773974</v>
+        <v>-1.575784051459203</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-8.440670169310051</v>
+        <v>-7.859393748944384</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.0344504034983622</v>
+        <v>-0.03371190852772232</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.02738615242758565</v>
+        <v>-0.02941345212790957</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.01787906924070926</v>
+        <v>-0.0165092787145493</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.0919151106020769</v>
+        <v>-0.08632760273862874</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.266254379234645</v>
+        <v>4.838810403726266</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.274918996055914</v>
+        <v>3.82017314710057</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.693444629625199</v>
+        <v>5.809847510671181</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-0.09124334155771152</v>
+        <v>0.4944384173671865</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.0472514302294778</v>
+        <v>0.05377497754889151</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04593046667328751</v>
+        <v>0.0411543604632905</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06317353707455921</v>
+        <v>0.06428146749308945</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.001407521408765948</v>
+        <v>0.004821171883441585</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>4.306137097268936</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.4106458442229122</v>
+        <v>0.4106458442229566</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.00673539779530365</v>
@@ -849,7 +849,7 @@
         <v>0.04781912427598466</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.004713054072493754</v>
+        <v>0.004713054072494264</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.982974171021923</v>
+        <v>-6.13626700617024</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.651559471091671</v>
+        <v>-2.22243210394026</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.07173250830362181</v>
+        <v>-0.2609815874392876</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.626512067605281</v>
+        <v>-5.703553794287989</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.06374658492871055</v>
+        <v>-0.06645311778707934</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.02802709481219911</v>
+        <v>-0.02358258518933801</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.001128214842810693</v>
+        <v>-0.002859241275637355</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.0525015566200075</v>
+        <v>-0.06484857545918363</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.961548723949293</v>
+        <v>3.978702234141592</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.401777354887339</v>
+        <v>4.507790232763208</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.422537812688253</v>
+        <v>8.46285274324476</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.137509447287279</v>
+        <v>5.258958113233191</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.04390364000379116</v>
+        <v>0.04392168095386385</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04752496642167844</v>
+        <v>0.04918284644517142</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09544114116594793</v>
+        <v>0.09662888657704247</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.06019112853222908</v>
+        <v>0.06164584928794897</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>3.243056375295628</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3.105700908587239</v>
+        <v>3.105700908587228</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02601382903346988</v>
@@ -949,7 +949,7 @@
         <v>0.03569114606742157</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.035617407717446</v>
+        <v>0.03561740771744587</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1196660101016582</v>
+        <v>-0.0128710574593128</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.594292626642509</v>
+        <v>-2.261084651769079</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9463591269664775</v>
+        <v>0.9259535385625739</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4782007913806645</v>
+        <v>0.1148143864713921</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.001288910291128592</v>
+        <v>-0.0001331457460136195</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.02745194166057862</v>
+        <v>-0.02416992583283971</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01022841221628544</v>
+        <v>0.0106969365309425</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.005430076253007299</v>
+        <v>0.001386900969559622</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.65423050152792</v>
+        <v>4.648571311068636</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.702809262202005</v>
+        <v>2.729910197238365</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.837687582660333</v>
+        <v>5.693824362659937</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.888191748128933</v>
+        <v>5.863569306339263</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.05148722105471785</v>
+        <v>0.05153651049211183</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.0294649627414903</v>
+        <v>0.03005036968647376</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0651402063894103</v>
+        <v>0.06382267151685314</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.06897748173660675</v>
+        <v>0.06857898656856154</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>1.274445814655434</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5.222691141103509</v>
+        <v>5.22269114110353</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02092470555228313</v>
@@ -1049,7 +1049,7 @@
         <v>0.01378593642909341</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.06124730589105633</v>
+        <v>0.06124730589105661</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.243085902204232</v>
+        <v>-1.393784700540326</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.564517842660177</v>
+        <v>-1.338120296220114</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.400278280367756</v>
+        <v>-1.795038510097169</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.669680405428009</v>
+        <v>1.835420726178158</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.01279137623697014</v>
+        <v>-0.01477428824347208</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.01665649420428659</v>
+        <v>-0.0143478814944053</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.01495587057222446</v>
+        <v>-0.01878254174562529</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.01911712131035665</v>
+        <v>0.02108427656243049</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.686865447399618</v>
+        <v>5.518982889231578</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.068829867569998</v>
+        <v>4.162127388668734</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.327007066920973</v>
+        <v>3.930096216801519</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.152958035504948</v>
+        <v>9.128405646267737</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.06317856563160551</v>
+        <v>0.06083438863129224</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04460652441856571</v>
+        <v>0.045171981956206</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0473813432377669</v>
+        <v>0.04340150244954332</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.1111094821781124</v>
+        <v>0.1121423830631098</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>0.2645857375321858</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>2.102033962474803</v>
+        <v>2.102033962474814</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.02586743548209012</v>
@@ -1149,7 +1149,7 @@
         <v>0.002817556457535571</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.02413593690424917</v>
+        <v>0.0241359369042493</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-4.838204160905665</v>
+        <v>-4.643829168942069</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-4.693908410273508</v>
+        <v>-4.596967007624843</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-2.532307671736106</v>
+        <v>-2.788788187591944</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-4.404136330340116</v>
+        <v>-4.131097248369289</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.04930651569080423</v>
+        <v>-0.04737612231488263</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.04781548343312516</v>
+        <v>-0.04772094415609825</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.02624825405651423</v>
+        <v>-0.02889241922113348</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.04737357668320186</v>
+        <v>-0.04394205100093861</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-0.01780920059193716</v>
+        <v>0.3132909136970525</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3028101791565483</v>
+        <v>0.5438456531034288</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4.017201149984754</v>
+        <v>3.632314802319578</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8.952186380793384</v>
+        <v>10.92607110618943</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.0004013756254485318</v>
+        <v>0.003333509430826176</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.003194596112907092</v>
+        <v>0.005689630735348679</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04412600333220865</v>
+        <v>0.04004466863510431</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1096211187315249</v>
+        <v>0.1379857587739731</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>2.302247799053458</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.413380806604914</v>
+        <v>1.413380806604925</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01551860975176505</v>
@@ -1249,7 +1249,7 @@
         <v>0.02509772000078909</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.01616803179190887</v>
+        <v>0.016168031791909</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.143749179777609</v>
+        <v>0.1716651449019782</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.3017945506881272</v>
+        <v>-0.3048297624111946</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.053989999156687</v>
+        <v>0.9947875718012734</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.1317084486235003</v>
+        <v>-0.2985135049207485</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.001460063460314612</v>
+        <v>0.001837291478249406</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.003293760866695619</v>
+        <v>-0.003229935862800147</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01139559194265519</v>
+        <v>0.01075429388242172</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.001567007292928825</v>
+        <v>-0.003355338699871167</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.765489802499394</v>
+        <v>2.705525330282163</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.080912898234053</v>
+        <v>2.167310677570367</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.51649961580382</v>
+        <v>3.584500933560636</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.983051563217307</v>
+        <v>2.927352095362862</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.02994661042472987</v>
+        <v>0.02933568199584775</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02227560861912457</v>
+        <v>0.02340105915861056</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0387452272861703</v>
+        <v>0.03943535379991694</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.03458099539106861</v>
+        <v>0.03401868569889611</v>
       </c>
     </row>
     <row r="25">
